--- a/java/javaWeb.xlsx
+++ b/java/javaWeb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="7104" windowHeight="1451" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Maven环境搭建" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>测试使用</t>
   </si>
   <si>
-    <t>Tomcat安装</t>
+    <t>Tomcat运行：war</t>
   </si>
   <si>
     <t>Tomcat与Maven环境搭建运行配置</t>
@@ -424,9 +424,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -468,7 +468,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,20 +536,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,6 +549,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -511,60 +580,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -574,22 +589,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,13 +616,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,163 +784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,6 +807,59 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -854,59 +907,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -915,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,16 +927,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,112 +948,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1453,8 +1453,8 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1669,7 +1669,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1865,7 +1865,7 @@
   <sheetPr/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/java/javaWeb.xlsx
+++ b/java/javaWeb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7104" windowHeight="1451" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Maven环境搭建" sheetId="1" r:id="rId1"/>
@@ -424,8 +424,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -468,16 +468,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,8 +497,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -506,62 +582,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,29 +594,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -616,85 +616,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,97 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,51 +814,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,6 +835,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -893,17 +864,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,133 +927,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1453,8 +1453,8 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1653,7 +1653,7 @@
     <mergeCell ref="A17:A18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" display="https://tomcat.apache.org/download-90.cgi"/>
+    <hyperlink ref="B19" r:id="rId1" display="https://tomcat.apache.org/download-90.cgi" tooltip="https://tomcat.apache.org/download-90.cgi"/>
     <hyperlink ref="B26" r:id="rId2" display="https://blog.csdn.net/u010312671/article/details/106737121/"/>
     <hyperlink ref="B25" r:id="rId3" display="https://www.runoob.com/jsp/jsp-jstl.html"/>
   </hyperlinks>
@@ -1865,7 +1865,7 @@
   <sheetPr/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
